--- a/Base_Academicos.xlsx
+++ b/Base_Academicos.xlsx
@@ -1542,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,11 +1561,6 @@
           <t>doi</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1578,7 +1573,6 @@
           <t>http://dx.doi.org/10.3390/ijms231810719</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1591,7 +1585,6 @@
           <t>http://dx.doi.org/10.1186/s40659-019-0261-4</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1604,7 +1597,6 @@
           <t>http://dx.doi.org/10.1007/s00044-018-2245-2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1617,7 +1609,6 @@
           <t>http://dx.doi.org/10.1016/j.msec.2017.05.116</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1630,7 +1621,6 @@
           <t>http://dx.doi.org/10.3390/ma10121404</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1643,7 +1633,6 @@
           <t>http://dx.doi.org/10.1002/term.2004</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1656,7 +1645,6 @@
           <t>http://dx.doi.org/10.1016/j.carbpol.2014.10.027</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1669,7 +1657,6 @@
           <t>http://dx.doi.org/10.1007/s00449-014-1319-x</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1682,7 +1669,6 @@
           <t>http://dx.doi.org/10.1007/s00449-013-0971-x</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,7 +1681,6 @@
           <t>http://dx.doi.org/10.1007/s00449-012-0786-1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1708,7 +1693,6 @@
           <t>http://dx.doi.org/10.4067/S0716-97602011000300005</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1721,7 +1705,6 @@
           <t>http://dx.doi.org/10.2225/vol13-issue5-fulltext-15</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1734,7 +1717,6 @@
           <t>http://dx.doi.org/10.1007/s10529-010-0245-5</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1747,7 +1729,6 @@
           <t>http://dx.doi.org/10.1186/1479-5876-8-59</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1760,7 +1741,6 @@
           <t>http://dx.doi.org/10.1007/s00449-008-0253-1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1773,7 +1753,6 @@
           <t>http://dx.doi.org/10.1016/j.ygyno.2006.07.007</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1786,7 +1765,6 @@
           <t>http://dx.doi.org/10.4161/cbt.77</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1799,7 +1777,6 @@
           <t>http://dx.doi.org/10.1038/sj.leu.2401926</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1812,7 +1789,6 @@
           <t>http://dx.doi.org/10.1016/S0065-2571(99)00033-3</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1825,7 +1801,6 @@
           <t>http://dx.doi.org/10.1038/sj.leu.2401792</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1838,7 +1813,6 @@
           <t>http://dx.doi.org/10.1016/S0163-7258(00)00085-1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1851,7 +1825,6 @@
           <t>http://dx.doi.org/10.1038/sj.leu.2401493</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1864,7 +1837,6 @@
           <t>http://dx.doi.org/10.1038/sj.leu.2401215</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Base_Academicos.xlsx
+++ b/Base_Academicos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Base_Acad" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,19 +53,6 @@
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -108,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -188,52 +175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -260,7 +201,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -287,41 +228,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -845,7 +756,7 @@
       </c>
       <c r="K2" s="7" t="n"/>
       <c r="L2" s="7" t="n"/>
-      <c r="M2" s="25" t="inlineStr">
+      <c r="M2" s="14" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
@@ -897,11 +808,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -955,9 +866,9 @@
       </c>
     </row>
     <row r="2" ht="40" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -994,10 +905,10 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="26.5" customHeight="1" thickBot="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
+    <row r="3" ht="53" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A3" s="14" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -1007,508 +918,28 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E3" s="15" t="inlineStr">
-        <is>
-          <t>Francisco González</t>
-        </is>
-      </c>
-      <c r="F3" s="15" t="inlineStr">
-        <is>
-          <t>p21 e Isoformas de p53 como Factores de Pronóstico para Glioblastoma.</t>
-        </is>
-      </c>
-      <c r="G3" s="15" t="inlineStr">
-        <is>
-          <t>Magister en Neurociencia.</t>
-        </is>
-      </c>
-      <c r="H3" s="15" t="inlineStr">
-        <is>
-          <t>Facultad de Ciencias, Universidad de Valparaíso.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="39.5" customHeight="1" thickBot="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="n">
+          <t>Co-Guia</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="E4" s="15" t="inlineStr">
-        <is>
-          <t>Lorena Villagra</t>
-        </is>
-      </c>
-      <c r="F4" s="15" t="inlineStr">
-        <is>
-          <t>Determinación de la Frecuencia de Beta Talasemia en Población Atendida en el Laboratorio Clínico de Clínica Las Condes.</t>
-        </is>
-      </c>
-      <c r="G4" s="15" t="inlineStr">
-        <is>
-          <t>Magister en Análisis Clínico.</t>
-        </is>
-      </c>
-      <c r="H4" s="15" t="inlineStr">
-        <is>
-          <t>Facultad de Farmacia. Universidad de Valparaíso.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="39.5" customHeight="1" thickBot="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>Ana Carolina Barría</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evaluación del rol del estrés oxidativo en la citotoxicidad inducida por extracto de Cimicifuga racemosa en la línea celular MCF-7. </t>
-        </is>
-      </c>
-      <c r="G5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magister en Ciencias mención Radicales Libres en Biomedicina., </t>
-        </is>
-      </c>
-      <c r="H5" s="16" t="inlineStr">
-        <is>
-          <t>Facultad de Medicina. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>Mauricio Reyna.</t>
-        </is>
-      </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evaluación de la interacción entre pectinas neutras de Brasica napus y galectina-3. Efectos sobre la proliferación y apoptosis en la línea celular de neuroblastoma humano SH-SY5Y. </t>
-        </is>
-      </c>
-      <c r="G6" s="16" t="inlineStr">
-        <is>
-          <t>Magister en Bioactividad de Productos Naturales y de Síntesis</t>
-        </is>
-      </c>
-      <c r="H6" s="16" t="inlineStr">
-        <is>
-          <t>Facultad de Farmacia. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="78.5" customHeight="1" thickBot="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D7" s="17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E7" s="16" t="inlineStr">
-        <is>
-          <t>Víctor Gómez.</t>
-        </is>
-      </c>
-      <c r="F7" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Validación de un Método Analítico para la Determinación de Concentraciones Plasmáticasde Aripiprazol / Dehidroaripiprazol y de Técnicas de Biología Molecular para la Detección de Polimorfismos del Gen Cyp2d6 Y del Gen del Receptor 5-Ht2a. </t>
-        </is>
-      </c>
-      <c r="G7" s="15" t="inlineStr">
-        <is>
-          <t>Magister en Análisis Clínico.</t>
-        </is>
-      </c>
-      <c r="H7" s="16" t="inlineStr">
-        <is>
-          <t>Facultad de Farmacia. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="39.5" customHeight="1" thickBot="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E8" s="16" t="inlineStr">
-        <is>
-          <t>Pedro Mellado.</t>
-        </is>
-      </c>
-      <c r="F8" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Discordancia e inconsistencia genotípica en un caso de paternidad para los marcadores D18S51, D16S539,D7S820, D2S1338. </t>
-        </is>
-      </c>
-      <c r="G8" s="15" t="inlineStr">
-        <is>
-          <t>Magister en Análisis Clínico.</t>
-        </is>
-      </c>
-      <c r="H8" s="16" t="inlineStr">
-        <is>
-          <t>Facultad de Farmacia. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D9" s="17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E9" s="16" t="inlineStr">
-        <is>
-          <t>Carol Parra.</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evaluación de la Participación de Especies Reactivas de Oxígeno en la Inhibición de la Proliferación Celular para Oligosacáridos Pécticos. </t>
-        </is>
-      </c>
-      <c r="G9" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magister en Ciencias mención Radicales Libres en Biomedicina., </t>
-        </is>
-      </c>
-      <c r="H9" s="16" t="inlineStr">
-        <is>
-          <t>Facultad de Medicina. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="37" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D10" s="20" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Dora Siervo</t>
-        </is>
-      </c>
-      <c r="F10" s="22" t="inlineStr">
-        <is>
-          <t>Efecto del Extracto de Maqui (Aristotelia.chilensis) sobre la Radiosensibilidad y Viabilidad in vitro de células tumorales y no malignas.</t>
-        </is>
-      </c>
-      <c r="G10" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magister en Ciencias mención Radicales Libres en Biomedicina </t>
-        </is>
-      </c>
-      <c r="H10" s="21" t="inlineStr">
-        <is>
-          <t>Facultad de Medicina. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="39.5" customHeight="1" thickBot="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D11" s="17" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E11" s="16" t="inlineStr">
-        <is>
-          <t>Pamela Arancibia</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rol de pectinas neutras de Raps modificadas sobre la expresión de la proteína galectina 3 en la linea celular de cáncer de mamas MCF-7". </t>
-        </is>
-      </c>
-      <c r="G11" s="16" t="inlineStr">
-        <is>
-          <t>Magister en Bioactividad de Productos Naturales y de Síntesis</t>
-        </is>
-      </c>
-      <c r="H11" s="16" t="inlineStr">
-        <is>
-          <t>Facultad de Farmacia. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="65.5" customHeight="1" thickBot="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D12" s="17" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E12" s="16" t="inlineStr">
-        <is>
-          <t>Rodrigo Coloma</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estudio de la relación entre los valores urinarios de factor de crecimiento de endotelio vascular (VEGF) en Prematuros y la aparición de hemangioma infantil en los primeros 3 meses de vida.  </t>
-        </is>
-      </c>
-      <c r="G12" s="15" t="inlineStr">
-        <is>
-          <t>Magister en Análisis Clínico.</t>
-        </is>
-      </c>
-      <c r="H12" s="16" t="inlineStr">
-        <is>
-          <t>Farmacia, Facultad de Farmacia. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D13" s="17" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E13" s="16" t="inlineStr">
-        <is>
-          <t>Javiera Castro</t>
-        </is>
-      </c>
-      <c r="F13" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actividad antiproliferativa de fragmentos estructurales de la pared celular de cáscara de plátano (Musa cavendish) sobre líneas celulares de cáncer humano. </t>
-        </is>
-      </c>
-      <c r="G13" s="16" t="inlineStr">
-        <is>
-          <t>Magister en Bioactividad de Productos Naturales y de Síntesis</t>
-        </is>
-      </c>
-      <c r="H13" s="16" t="inlineStr">
-        <is>
-          <t>Facultad de Farmacia. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline.weinstein@uv.cl </t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="D14" s="20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E14" s="21" t="inlineStr">
-        <is>
-          <t>Daniela García</t>
-        </is>
-      </c>
-      <c r="F14" s="19" t="inlineStr">
-        <is>
-          <t>Estudio exploratorio de relación entre efectos adversos a risperidona y polimorfismos genéticos de metabolizadores lentos para CYP2D6</t>
-        </is>
-      </c>
-      <c r="G14" s="23" t="inlineStr">
-        <is>
-          <t>Magister en Análisis Clínico.</t>
-        </is>
-      </c>
-      <c r="H14" s="21" t="inlineStr">
-        <is>
-          <t>Facultad de Farmacia. Universidad de Valparaíso</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="53" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A15" s="25" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Magister</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Co-Guia</t>
-        </is>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E15" s="13" t="inlineStr">
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>John Deer</t>
         </is>
       </c>
-      <c r="F15" s="13" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>la mirada al cielo</t>
         </is>
       </c>
-      <c r="G15" s="13" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>Magister en miradas</t>
         </is>
       </c>
-      <c r="H15" s="13" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>Facultad x Universidad X</t>
         </is>
@@ -1518,18 +949,6 @@
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1551,12 +970,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
@@ -1902,7 +1321,7 @@
       </c>
     </row>
     <row r="2" ht="27.65" customHeight="1">
-      <c r="A2" s="25" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
@@ -1955,7 +1374,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -2003,7 +1422,7 @@
       </c>
     </row>
     <row r="2" ht="15.5" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A2" s="25" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
